--- a/data/trans_dic/P20_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P20_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido menos unido/a con el resto de la sociedad</t>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>65,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>53,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>69,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>57,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>67,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>55,79%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 38,06</t>
+          <t>61,31; 69,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,57; 49,76</t>
+          <t>48,89; 58,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,5; 32,97</t>
+          <t>65,76; 72,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,25; 46,34</t>
+          <t>54,0; 61,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,99; 34,18</t>
+          <t>65,11; 70,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,95; 46,93</t>
+          <t>52,75; 58,93</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>62,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>58,28%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,41; 41,61</t>
+          <t>57,28; 66,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,74; 45,84</t>
+          <t>52,73; 63,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,06; 39,93</t>
+          <t>58,66; 66,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,18; 46,39</t>
+          <t>53,25; 62,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,28; 39,41</t>
+          <t>59,85; 65,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,54; 44,29</t>
+          <t>54,48; 61,92</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>54,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>72,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>60,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>63,39%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,97; 52,21</t>
+          <t>44,83; 65,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,33; 55,32</t>
+          <t>45,3; 64,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,09; 39,47</t>
+          <t>59,18; 73,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,71; 38,0</t>
+          <t>63,85; 78,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,69; 44,13</t>
+          <t>53,39; 66,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,65; 42,62</t>
+          <t>56,8; 69,6</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>66,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>57,66%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,24; 38,84</t>
+          <t>60,29; 66,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,56; 46,4</t>
+          <t>52,55; 59,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,17; 34,73</t>
+          <t>64,08; 68,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,77; 43,28</t>
+          <t>56,89; 62,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,44; 35,97</t>
+          <t>62,9; 66,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,63; 43,89</t>
+          <t>55,62; 59,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>558.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>700.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1078594</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>873035</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1242454</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1003301</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2321048</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1876336</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1005499; 1139355</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>792690; 946743</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1177686; 1300240</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>940530; 1066303</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2233849; 2404954</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1773932; 1981727</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>747.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>558.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>866379</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>784062</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>884012</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>779720</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1750391</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1563782</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>794208; 923309</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>707415; 849524</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>827035; 937065</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>714377; 834157</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1673579; 1833649</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1461794; 1661323</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>236876</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>224499</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>272041</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>288582</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>508916</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>513081</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>189543; 275889</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>186089; 266964</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>243771; 301367</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>254470; 313844</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>445644; 557542</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>459749; 563278</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>864.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>634.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1072.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>785.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1936.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1419.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2181848</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1881597</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2398506</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2071603</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4580354</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3953199</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2079616; 2276945</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1772860; 1994737</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2315144; 2488527</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1980982; 2171148</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4442164; 4711444</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3812714; 4111788</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>